--- a/excels/units/summoned.xlsx
+++ b/excels/units/summoned.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
   <si>
     <t>主键</t>
   </si>
@@ -252,6 +252,36 @@
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
+  </si>
+  <si>
+    <t>summoned_wind_dragon</t>
+  </si>
+  <si>
+    <t>风龙</t>
+  </si>
+  <si>
+    <t>summoned_fire_dragon</t>
+  </si>
+  <si>
+    <t>火龙</t>
+  </si>
+  <si>
+    <t>summoned_ice_dragon</t>
+  </si>
+  <si>
+    <t>冰龙</t>
+  </si>
+  <si>
+    <t>summoned_light_dragon</t>
+  </si>
+  <si>
+    <t>光龙</t>
+  </si>
+  <si>
+    <t>summoned_dark_dragon</t>
+  </si>
+  <si>
+    <t>冥龙</t>
   </si>
 </sst>
 </file>
@@ -1156,13 +1186,13 @@
     <xf numFmtId="177" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1494,8 +1524,8 @@
   <sheetPr/>
   <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1982,175 +2012,455 @@
       </c>
       <c r="AF5" s="26"/>
     </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="28"/>
+    <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
+      <c r="A6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>200</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>10</v>
+      </c>
+      <c r="K6" s="14">
+        <v>10</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="14">
+        <v>125</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14">
+        <v>500</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>160</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="26" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
+    <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
+      <c r="A7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>200</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>10</v>
+      </c>
+      <c r="K7" s="14">
+        <v>10</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="14">
+        <v>125</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="14">
+        <v>1</v>
+      </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="29"/>
+      <c r="T7" s="14">
+        <v>500</v>
+      </c>
+      <c r="U7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>160</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="26" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="28"/>
+    <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
+      <c r="A8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>200</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>10</v>
+      </c>
+      <c r="K8" s="14">
+        <v>10</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="14">
+        <v>125</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14">
+        <v>500</v>
+      </c>
+      <c r="U8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>160</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>30</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="26" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
+    <row r="9" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
+      <c r="A9" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>200</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>10</v>
+      </c>
+      <c r="K9" s="14">
+        <v>10</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="14">
+        <v>125</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="14">
+        <v>1</v>
+      </c>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="29"/>
+      <c r="T9" s="14">
+        <v>500</v>
+      </c>
+      <c r="U9" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>160</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="26" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="28"/>
+    <row r="10" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
+      <c r="A10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>200</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>10</v>
+      </c>
+      <c r="K10" s="14">
+        <v>10</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="14">
+        <v>125</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14">
+        <v>500</v>
+      </c>
+      <c r="U10" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>160</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="26" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:32">
       <c r="A11" s="13"/>
@@ -2184,7 +2494,7 @@
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
       <c r="AE11" s="25"/>
-      <c r="AF11" s="29"/>
+      <c r="AF11" s="27"/>
     </row>
     <row r="12" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
       <c r="A12" s="17"/>
@@ -2217,8 +2527,8 @@
       <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
       <c r="AD12" s="18"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="29"/>
     </row>
     <row r="13" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
       <c r="A13" s="13"/>
@@ -2252,7 +2562,7 @@
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="25"/>
-      <c r="AF13" s="29"/>
+      <c r="AF13" s="27"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:32">
       <c r="A14" s="13"/>
@@ -2286,7 +2596,7 @@
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
       <c r="AE14" s="25"/>
-      <c r="AF14" s="29"/>
+      <c r="AF14" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:W14">

--- a/excels/units/summoned.xlsx
+++ b/excels/units/summoned.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>主键</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>冥龙</t>
+  </si>
+  <si>
+    <t>summoned_skeleton1</t>
+  </si>
+  <si>
+    <t>骷髅</t>
   </si>
 </sst>
 </file>
@@ -1186,13 +1192,13 @@
     <xf numFmtId="177" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1524,8 +1530,8 @@
   <sheetPr/>
   <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2462,39 +2468,95 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
+    <row r="11" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
+      <c r="A11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>200</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>10</v>
+      </c>
+      <c r="K11" s="14">
+        <v>10</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="14">
+        <v>125</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="14">
+        <v>1</v>
+      </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="27"/>
+      <c r="T11" s="14">
+        <v>500</v>
+      </c>
+      <c r="U11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>160</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="26" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
       <c r="A12" s="17"/>
@@ -2527,8 +2589,8 @@
       <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
       <c r="AD12" s="18"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="29"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="28"/>
     </row>
     <row r="13" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
       <c r="A13" s="13"/>
@@ -2562,7 +2624,7 @@
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="25"/>
-      <c r="AF13" s="27"/>
+      <c r="AF13" s="29"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:32">
       <c r="A14" s="13"/>
@@ -2596,7 +2658,7 @@
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
       <c r="AE14" s="25"/>
-      <c r="AF14" s="27"/>
+      <c r="AF14" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:W14">

--- a/excels/units/summoned.xlsx
+++ b/excels/units/summoned.xlsx
@@ -1531,7 +1531,7 @@
   <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/excels/units/summoned.xlsx
+++ b/excels/units/summoned.xlsx
@@ -215,7 +215,7 @@
     <t>npc_dota_base_additive</t>
   </si>
   <si>
-    <t>models/heroes/monkey_king/transform_invisiblebox.vmdl</t>
+    <t>models/development/invisiblebox.vmdl</t>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_FLY</t>
@@ -1530,8 +1530,8 @@
   <sheetPr/>
   <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2661,7 +2661,7 @@
       <c r="AF14" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W14">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:W14" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/units/summoned.xlsx
+++ b/excels/units/summoned.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>主键</t>
   </si>
@@ -230,64 +230,10 @@
     <t>DOTA_HULL_SIZE_SMALLEST</t>
   </si>
   <si>
-    <t>summoned_thunder_dragon</t>
-  </si>
-  <si>
-    <t>雷龙</t>
-  </si>
-  <si>
-    <t>models/heroes/twin_headed_dragon/twin_headed_dragon.vmdl</t>
-  </si>
-  <si>
-    <t>ai/ai_guardian.lua</t>
-  </si>
-  <si>
-    <t>summoned_scarecrow</t>
-  </si>
-  <si>
-    <t>稻草人</t>
-  </si>
-  <si>
-    <t>models/props_gameplay/dummy/dummy_large.vmdl</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
-  </si>
-  <si>
-    <t>summoned_wind_dragon</t>
-  </si>
-  <si>
-    <t>风龙</t>
-  </si>
-  <si>
-    <t>summoned_fire_dragon</t>
-  </si>
-  <si>
-    <t>火龙</t>
-  </si>
-  <si>
-    <t>summoned_ice_dragon</t>
-  </si>
-  <si>
-    <t>冰龙</t>
-  </si>
-  <si>
-    <t>summoned_light_dragon</t>
-  </si>
-  <si>
-    <t>光龙</t>
-  </si>
-  <si>
-    <t>summoned_dark_dragon</t>
-  </si>
-  <si>
-    <t>冥龙</t>
-  </si>
-  <si>
-    <t>summoned_skeleton1</t>
-  </si>
-  <si>
-    <t>骷髅</t>
+    <t>npc_summoned_tinder</t>
+  </si>
+  <si>
+    <t>火种</t>
   </si>
 </sst>
 </file>
@@ -473,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,12 +435,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,7 +927,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1011,16 +951,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1029,90 +969,90 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1162,18 +1102,6 @@
     <xf numFmtId="177" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1190,12 +1118,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1530,8 +1452,8 @@
   <sheetPr/>
   <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1649,10 +1571,10 @@
       <c r="AD1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AF1" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1745,10 +1667,10 @@
       <c r="AD2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AE2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AF2" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1835,10 +1757,10 @@
       <c r="AD3" s="14">
         <v>0</v>
       </c>
-      <c r="AE3" s="25">
+      <c r="AE3" s="21">
         <v>0</v>
       </c>
-      <c r="AF3" s="26"/>
+      <c r="AF3" s="22"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
       <c r="A4" s="13" t="s">
@@ -1882,7 +1804,7 @@
         <v>0.3</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P4" s="14">
         <v>1</v>
@@ -1923,674 +1845,282 @@
       <c r="AD4" s="14">
         <v>0</v>
       </c>
-      <c r="AE4" s="25">
+      <c r="AE4" s="21">
         <v>0</v>
       </c>
-      <c r="AF4" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="AF4" s="22"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <v>10</v>
-      </c>
-      <c r="K5" s="14">
-        <v>10</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="14">
-        <v>125</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" s="14">
-        <v>1</v>
-      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="14">
-        <v>500</v>
-      </c>
-      <c r="U5" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y5" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA5" s="14">
-        <v>160</v>
-      </c>
-      <c r="AB5" s="14">
-        <v>30</v>
-      </c>
-      <c r="AC5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="26"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="22"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A6" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>200</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
-        <v>10</v>
-      </c>
-      <c r="K6" s="14">
-        <v>10</v>
-      </c>
-      <c r="L6" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="14">
-        <v>125</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="14">
-        <v>1</v>
-      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
-      <c r="T6" s="14">
-        <v>500</v>
-      </c>
-      <c r="U6" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y6" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>160</v>
-      </c>
-      <c r="AB6" s="14">
-        <v>30</v>
-      </c>
-      <c r="AC6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="T6" s="14"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="22"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>77</v>
-      </c>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>200</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
-        <v>10</v>
-      </c>
-      <c r="K7" s="14">
-        <v>10</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="14">
-        <v>125</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="14">
-        <v>1</v>
-      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
-      <c r="T7" s="14">
-        <v>500</v>
-      </c>
-      <c r="U7" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>160</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>30</v>
-      </c>
-      <c r="AC7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="T7" s="14"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="22"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>200</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <v>10</v>
-      </c>
-      <c r="K8" s="14">
-        <v>10</v>
-      </c>
-      <c r="L8" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="M8" s="14">
-        <v>125</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="14">
-        <v>1</v>
-      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
-      <c r="T8" s="14">
-        <v>500</v>
-      </c>
-      <c r="U8" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y8" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>160</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>30</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="T8" s="14"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="22"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A9" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>81</v>
-      </c>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>200</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <v>10</v>
-      </c>
-      <c r="K9" s="14">
-        <v>10</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="M9" s="14">
-        <v>125</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="P9" s="14">
-        <v>1</v>
-      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
-      <c r="T9" s="14">
-        <v>500</v>
-      </c>
-      <c r="U9" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y9" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA9" s="14">
-        <v>160</v>
-      </c>
-      <c r="AB9" s="14">
-        <v>30</v>
-      </c>
-      <c r="AC9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="T9" s="14"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="22"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A10" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>83</v>
-      </c>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>200</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <v>10</v>
-      </c>
-      <c r="K10" s="14">
-        <v>10</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="14">
-        <v>125</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="14">
-        <v>1</v>
-      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
-      <c r="T10" s="14">
-        <v>500</v>
-      </c>
-      <c r="U10" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="V10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="W10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="X10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y10" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>160</v>
-      </c>
-      <c r="AB10" s="14">
-        <v>30</v>
-      </c>
-      <c r="AC10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="T10" s="14"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="22"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>200</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <v>10</v>
-      </c>
-      <c r="K11" s="14">
-        <v>10</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="14">
-        <v>125</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" s="14">
-        <v>1</v>
-      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
-      <c r="T11" s="14">
-        <v>500</v>
-      </c>
-      <c r="U11" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="X11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y11" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>160</v>
-      </c>
-      <c r="AB11" s="14">
-        <v>30</v>
-      </c>
-      <c r="AC11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="T11" s="14"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="22"/>
     </row>
-    <row r="12" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="28"/>
+    <row r="12" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="22"/>
     </row>
     <row r="13" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
       <c r="A13" s="13"/>
@@ -2623,8 +2153,8 @@
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="29"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="23"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:32">
       <c r="A14" s="13"/>
@@ -2657,8 +2187,8 @@
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="29"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="23"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:W14" etc:filterBottomFollowUsedRange="0">

--- a/excels/units/summoned.xlsx
+++ b/excels/units/summoned.xlsx
@@ -10,7 +10,7 @@
     <sheet name="summoned" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">summoned!$A$1:$W$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">summoned!$A$1:$AI$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>主键</t>
   </si>
@@ -158,6 +158,15 @@
     <t>ModelScale</t>
   </si>
   <si>
+    <t>Creature[{]</t>
+  </si>
+  <si>
+    <t>AttachWearables[{]</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
     <t>Ability1</t>
   </si>
   <si>
@@ -218,7 +227,7 @@
     <t>models/development/invisiblebox.vmdl</t>
   </si>
   <si>
-    <t>DOTA_UNIT_CAP_MOVE_FLY</t>
+    <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_NO_ATTACK</t>
@@ -234,6 +243,18 @@
   </si>
   <si>
     <t>火种</t>
+  </si>
+  <si>
+    <t>npc_summoned_skywrath</t>
+  </si>
+  <si>
+    <t>奥术分身</t>
+  </si>
+  <si>
+    <t>npc_dota_creature</t>
+  </si>
+  <si>
+    <t>models/items/skywrath_mage/skywrath_arcana/skywrath_arcana.vmdl</t>
   </si>
 </sst>
 </file>
@@ -248,7 +269,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +291,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -419,7 +447,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +468,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -625,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -724,7 +758,7 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF5A5A5A"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -739,6 +773,71 @@
       <right style="thin">
         <color rgb="FF5A5A5A"/>
       </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
@@ -751,21 +850,6 @@
       </left>
       <right style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5A5A5A"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
@@ -921,55 +1005,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -984,75 +1065,78 @@
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1066,6 +1150,9 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1108,19 +1195,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1450,10 +1558,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1473,725 +1581,1169 @@
     <col min="14" max="14" width="14.625" style="2" customWidth="1"/>
     <col min="15" max="15" width="50.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.175" style="2" customWidth="1"/>
-    <col min="17" max="17" width="25.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="18.5" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.675" style="2" customWidth="1"/>
-    <col min="20" max="20" width="21.8416666666667" style="2" customWidth="1"/>
-    <col min="21" max="21" width="24.3416666666667" style="3" customWidth="1"/>
-    <col min="22" max="22" width="32.5083333333333" style="2" customWidth="1"/>
-    <col min="23" max="23" width="31.8416666666667" style="2" customWidth="1"/>
-    <col min="24" max="24" width="13.3416666666667" style="2" customWidth="1"/>
-    <col min="25" max="25" width="13.175" style="2" customWidth="1"/>
-    <col min="26" max="28" width="27.0083333333333" style="2" customWidth="1"/>
-    <col min="29" max="29" width="25.0083333333333" style="2" customWidth="1"/>
-    <col min="30" max="31" width="27.75" style="2" customWidth="1"/>
-    <col min="32" max="32" width="14.8416666666667" style="2" customWidth="1"/>
-    <col min="33" max="16373" width="77.25" style="2"/>
-    <col min="16374" max="16384" width="9" style="2"/>
+    <col min="17" max="17" width="14.3416666666667" style="5" customWidth="1"/>
+    <col min="18" max="18" width="23.8416666666667" style="5" customWidth="1"/>
+    <col min="19" max="23" width="10.0083333333333" style="5" customWidth="1"/>
+    <col min="24" max="26" width="9.00833333333333" style="5" customWidth="1"/>
+    <col min="27" max="28" width="3.625" style="5" customWidth="1"/>
+    <col min="29" max="29" width="25.25" style="2" customWidth="1"/>
+    <col min="30" max="30" width="18.5" style="2" customWidth="1"/>
+    <col min="31" max="31" width="8.675" style="2" customWidth="1"/>
+    <col min="32" max="32" width="21.8416666666667" style="2" customWidth="1"/>
+    <col min="33" max="33" width="24.3416666666667" style="3" customWidth="1"/>
+    <col min="34" max="34" width="32.5083333333333" style="2" customWidth="1"/>
+    <col min="35" max="35" width="31.8416666666667" style="2" customWidth="1"/>
+    <col min="36" max="36" width="13.3416666666667" style="2" customWidth="1"/>
+    <col min="37" max="37" width="13.175" style="2" customWidth="1"/>
+    <col min="38" max="40" width="27.0083333333333" style="2" customWidth="1"/>
+    <col min="41" max="41" width="25.0083333333333" style="2" customWidth="1"/>
+    <col min="42" max="43" width="27.75" style="2" customWidth="1"/>
+    <col min="44" max="44" width="14.8416666666667" style="2" customWidth="1"/>
+    <col min="45" max="16384" width="77.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="AF1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="AG1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="AH1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AI1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AK1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AL1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AM1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AN1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AO1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AP1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AQ1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AR1" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:32">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:44">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11">
+        <v>1</v>
+      </c>
+      <c r="T2" s="11">
+        <v>2</v>
+      </c>
+      <c r="U2" s="11">
+        <v>3</v>
+      </c>
+      <c r="V2" s="11">
+        <v>4</v>
+      </c>
+      <c r="W2" s="11">
+        <v>5</v>
+      </c>
+      <c r="X2" s="19">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="24">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="AB2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="AD2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="AE2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="AF2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AG2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AH2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AI2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AK2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AL2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AM2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AN2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AO2" s="11" t="s">
         <v>57</v>
       </c>
+      <c r="AP2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR2" s="19" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="14">
+    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <v>0</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="16">
         <v>0</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="17">
         <v>200</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="15">
         <v>0</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="15">
         <v>10</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="15">
         <v>10</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="15">
         <v>0.5</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="15">
         <v>125</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="15">
         <v>0.3</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="14">
+      <c r="O3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="15">
         <v>1</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15">
         <v>300</v>
       </c>
-      <c r="U3" s="15">
+      <c r="AG3" s="16">
         <v>0.5</v>
       </c>
-      <c r="V3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="14" t="s">
+      <c r="AH3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM3" s="15">
+        <v>160</v>
+      </c>
+      <c r="AN3" s="15">
+        <v>30</v>
+      </c>
+      <c r="AO3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="30"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <v>200</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>10</v>
+      </c>
+      <c r="K4" s="15">
+        <v>10</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="15">
+        <v>125</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="O4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="P4" s="15">
         <v>1</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15">
+        <v>500</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AH4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="14">
+      <c r="AI4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM4" s="15">
         <v>160</v>
       </c>
-      <c r="AB3" s="14">
+      <c r="AN4" s="15">
         <v>30</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AO4" s="15">
         <v>0</v>
       </c>
-      <c r="AD3" s="14">
+      <c r="AP4" s="15">
         <v>0</v>
       </c>
-      <c r="AE3" s="21">
+      <c r="AQ4" s="29">
         <v>0</v>
       </c>
-      <c r="AF3" s="22"/>
+      <c r="AR4" s="30"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A4" s="13" t="s">
+    <row r="5" s="2" customFormat="1" ht="33" spans="1:44">
+      <c r="A5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>200</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>10</v>
+      </c>
+      <c r="K5" s="15">
+        <v>10</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="15">
+        <v>125</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="15">
+        <v>18539</v>
+      </c>
+      <c r="T5" s="15">
+        <v>18540</v>
+      </c>
+      <c r="U5" s="15">
+        <v>18541</v>
+      </c>
+      <c r="V5" s="15">
+        <v>18542</v>
+      </c>
+      <c r="W5" s="15">
+        <v>18543</v>
+      </c>
+      <c r="X5" s="15">
+        <v>18544</v>
+      </c>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15">
+        <v>500</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="AJ5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="AK5" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="15">
+      <c r="AL5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM5" s="15">
+        <v>160</v>
+      </c>
+      <c r="AN5" s="15">
+        <v>30</v>
+      </c>
+      <c r="AO5" s="15">
         <v>0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="AP5" s="15">
         <v>0</v>
       </c>
-      <c r="H4" s="16">
-        <v>200</v>
-      </c>
-      <c r="I4" s="14">
+      <c r="AQ5" s="29">
         <v>0</v>
       </c>
-      <c r="J4" s="14">
-        <v>10</v>
-      </c>
-      <c r="K4" s="14">
-        <v>10</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="14">
-        <v>125</v>
-      </c>
-      <c r="N4" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14">
-        <v>500</v>
-      </c>
-      <c r="U4" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA4" s="14">
-        <v>160</v>
-      </c>
-      <c r="AB4" s="14">
-        <v>30</v>
-      </c>
-      <c r="AC4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="22"/>
+      <c r="AR5" s="30"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="22"/>
+    <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="29"/>
+      <c r="AR6" s="30"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="22"/>
+    <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="30"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="22"/>
+    <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="30"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="22"/>
+    <row r="9" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="30"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="22"/>
+    <row r="10" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="30"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="22"/>
+    <row r="11" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="30"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="22"/>
+    <row r="12" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="30"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="22"/>
+    <row r="13" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="31"/>
     </row>
-    <row r="13" customFormat="1" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="23"/>
+    <row r="14" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="31"/>
     </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:32">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="23"/>
+    <row r="15" spans="17:28">
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+    </row>
+    <row r="16" spans="17:28">
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+    </row>
+    <row r="17" spans="17:28">
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+    </row>
+    <row r="18" spans="17:28">
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+    </row>
+    <row r="19" spans="17:28">
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+    </row>
+    <row r="20" spans="17:28">
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="17:28">
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+    </row>
+    <row r="22" spans="17:28">
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+    </row>
+    <row r="23" spans="17:28">
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+    </row>
+    <row r="24" spans="17:28">
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+    </row>
+    <row r="25" spans="17:28">
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+    </row>
+    <row r="26" spans="17:28">
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+    </row>
+    <row r="27" spans="17:28">
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:W14" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI14" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/units/summoned.xlsx
+++ b/excels/units/summoned.xlsx
@@ -1560,8 +1560,8 @@
   <sheetPr/>
   <dimension ref="A1:AR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2079,7 +2079,7 @@
         <v>74</v>
       </c>
       <c r="P5" s="15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
